--- a/TravelInsuranceAutomation/Resources/Input/Input.xlsx
+++ b/TravelInsuranceAutomation/Resources/Input/Input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2282212_cognizant_com/Documents/Desktop/Projects/TravelInsuranceAutomation/Resources/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\NABAJYOTI\SeleniumLearnings\TravelInsuranceAutomation\Resources\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC10484B69DD681E5BDE58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88602B22-0159-40FB-8A09-5859CA41C039}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F26517-8BB7-4B1F-939E-173A671EC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
     <sheet name="Car" sheetId="2" r:id="rId2"/>
-    <sheet name="Health" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Destination</t>
   </si>
@@ -47,9 +46,6 @@
     <t>26 October, 2023</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>Travellers</t>
   </si>
   <si>
@@ -60,6 +56,33 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Agartala</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Bolero</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Naba</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>naba93980</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -390,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -425,7 +448,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -433,7 +456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -441,7 +464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -449,7 +472,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>9876543210</v>
@@ -463,27 +486,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0604AE-22E3-42F7-8D33-20344983BE1E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F65611-8D98-4CAA-B054-1D1F59BBD7F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>

--- a/TravelInsuranceAutomation/Resources/Input/Input.xlsx
+++ b/TravelInsuranceAutomation/Resources/Input/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\NABAJYOTI\SeleniumLearnings\TravelInsuranceAutomation\Resources\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F26517-8BB7-4B1F-939E-173A671EC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDF5DD-EAA7-4D97-B960-D7F4042A1A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Destination</t>
   </si>
@@ -46,15 +46,6 @@
     <t>26 October, 2023</t>
   </si>
   <si>
-    <t>Travellers</t>
-  </si>
-  <si>
-    <t>Age1</t>
-  </si>
-  <si>
-    <t>Age2</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -83,24 +74,22 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>five</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,16 +112,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,32 +437,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>9876543210</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +452,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,42 +462,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1234567890</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TravelInsuranceAutomation/Resources/Input/Input.xlsx
+++ b/TravelInsuranceAutomation/Resources/Input/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\NABAJYOTI\SeleniumLearnings\TravelInsuranceAutomation\Resources\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDF5DD-EAA7-4D97-B960-D7F4042A1A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC76D498-9E42-4585-996D-10389EC4C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Destination</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>Mobile</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>five</t>
   </si>
 </sst>
 </file>
@@ -400,13 +394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -437,8 +431,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" s="1">
+        <v>9000728477</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0604AE-22E3-42F7-8D33-20344983BE1E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -496,8 +490,8 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+      <c r="B5">
+        <v>7329</v>
       </c>
     </row>
   </sheetData>
